--- a/uploads/NEW TEST.XLSX
+++ b/uploads/NEW TEST.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD1068-0CF0-4CBA-BDE9-17205610FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF7A65-0EAE-4088-BA56-5F69F6E9F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="298">
   <si>
     <t>Submission Date</t>
   </si>
@@ -919,153 +919,6 @@
   </si>
   <si>
     <t>87</t>
-  </si>
-  <si>
-    <t>TEST100004</t>
-  </si>
-  <si>
-    <t>TEST100005</t>
-  </si>
-  <si>
-    <t>TEST100006</t>
-  </si>
-  <si>
-    <t>TEST100007</t>
-  </si>
-  <si>
-    <t>TEST100008</t>
-  </si>
-  <si>
-    <t>TEST100009</t>
-  </si>
-  <si>
-    <t>TEST100010</t>
-  </si>
-  <si>
-    <t>TEST100011</t>
-  </si>
-  <si>
-    <t>TEST100012</t>
-  </si>
-  <si>
-    <t>TEST100013</t>
-  </si>
-  <si>
-    <t>TEST100014</t>
-  </si>
-  <si>
-    <t>TEST100015</t>
-  </si>
-  <si>
-    <t>TEST100016</t>
-  </si>
-  <si>
-    <t>TEST100017</t>
-  </si>
-  <si>
-    <t>TEST100018</t>
-  </si>
-  <si>
-    <t>TEST100019</t>
-  </si>
-  <si>
-    <t>TEST100020</t>
-  </si>
-  <si>
-    <t>TEST100021</t>
-  </si>
-  <si>
-    <t>TEST100022</t>
-  </si>
-  <si>
-    <t>TEST100023</t>
-  </si>
-  <si>
-    <t>TEST100024</t>
-  </si>
-  <si>
-    <t>TEST100025</t>
-  </si>
-  <si>
-    <t>TEST100026</t>
-  </si>
-  <si>
-    <t>TEST100027</t>
-  </si>
-  <si>
-    <t>TEST100028</t>
-  </si>
-  <si>
-    <t>TEST100029</t>
-  </si>
-  <si>
-    <t>TEST100030</t>
-  </si>
-  <si>
-    <t>TEST100031</t>
-  </si>
-  <si>
-    <t>TEST100032</t>
-  </si>
-  <si>
-    <t>TEST100033</t>
-  </si>
-  <si>
-    <t>TEST100034</t>
-  </si>
-  <si>
-    <t>TEST100035</t>
-  </si>
-  <si>
-    <t>TEST100036</t>
-  </si>
-  <si>
-    <t>TEST100037</t>
-  </si>
-  <si>
-    <t>TEST100038</t>
-  </si>
-  <si>
-    <t>TEST100039</t>
-  </si>
-  <si>
-    <t>TEST100040</t>
-  </si>
-  <si>
-    <t>TEST100041</t>
-  </si>
-  <si>
-    <t>TEST100042</t>
-  </si>
-  <si>
-    <t>TEST100043</t>
-  </si>
-  <si>
-    <t>TEST100044</t>
-  </si>
-  <si>
-    <t>TEST100045</t>
-  </si>
-  <si>
-    <t>TEST100046</t>
-  </si>
-  <si>
-    <t>TEST100047</t>
-  </si>
-  <si>
-    <t>TEST100048</t>
-  </si>
-  <si>
-    <t>TEST100049</t>
-  </si>
-  <si>
-    <t>TEST100050</t>
-  </si>
-  <si>
-    <t>TEST100051</t>
-  </si>
-  <si>
-    <t>TEST100052</t>
   </si>
 </sst>
 </file>
@@ -1275,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" activeCellId="1" sqref="I50 L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1404,9 +1257,6 @@
       <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
-        <v>298</v>
-      </c>
       <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1493,9 +1343,6 @@
       <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>299</v>
-      </c>
       <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1582,9 +1429,6 @@
       <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
-        <v>300</v>
-      </c>
       <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1671,9 +1515,6 @@
       <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
-        <v>301</v>
-      </c>
       <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1760,9 +1601,6 @@
       <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>302</v>
-      </c>
       <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1849,9 +1687,6 @@
       <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
-        <v>303</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1938,9 +1773,6 @@
       <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
-        <v>304</v>
-      </c>
       <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2027,9 +1859,6 @@
       <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
-        <v>305</v>
-      </c>
       <c r="J9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2116,9 +1945,6 @@
       <c r="H10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I10" t="s">
-        <v>306</v>
-      </c>
       <c r="J10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2205,9 +2031,6 @@
       <c r="H11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s">
-        <v>307</v>
-      </c>
       <c r="J11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2294,9 +2117,6 @@
       <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I12" t="s">
-        <v>308</v>
-      </c>
       <c r="J12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2383,9 +2203,6 @@
       <c r="H13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I13" t="s">
-        <v>309</v>
-      </c>
       <c r="J13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2472,9 +2289,6 @@
       <c r="H14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I14" t="s">
-        <v>310</v>
-      </c>
       <c r="J14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2561,9 +2375,6 @@
       <c r="H15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I15" t="s">
-        <v>311</v>
-      </c>
       <c r="J15" s="2" t="s">
         <v>38</v>
       </c>
@@ -2650,9 +2461,6 @@
       <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I16" t="s">
-        <v>312</v>
-      </c>
       <c r="J16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2739,9 +2547,6 @@
       <c r="H17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I17" t="s">
-        <v>313</v>
-      </c>
       <c r="J17" s="2" t="s">
         <v>38</v>
       </c>
@@ -2828,9 +2633,6 @@
       <c r="H18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I18" t="s">
-        <v>314</v>
-      </c>
       <c r="J18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2917,9 +2719,6 @@
       <c r="H19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I19" t="s">
-        <v>315</v>
-      </c>
       <c r="J19" s="2" t="s">
         <v>38</v>
       </c>
@@ -3006,9 +2805,6 @@
       <c r="H20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I20" t="s">
-        <v>316</v>
-      </c>
       <c r="J20" s="2" t="s">
         <v>38</v>
       </c>
@@ -3095,9 +2891,6 @@
       <c r="H21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I21" t="s">
-        <v>317</v>
-      </c>
       <c r="J21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3184,9 +2977,6 @@
       <c r="H22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I22" t="s">
-        <v>318</v>
-      </c>
       <c r="J22" s="2" t="s">
         <v>38</v>
       </c>
@@ -3273,9 +3063,6 @@
       <c r="H23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I23" t="s">
-        <v>319</v>
-      </c>
       <c r="J23" s="2" t="s">
         <v>38</v>
       </c>
@@ -3362,9 +3149,6 @@
       <c r="H24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I24" t="s">
-        <v>320</v>
-      </c>
       <c r="J24" s="2" t="s">
         <v>38</v>
       </c>
@@ -3451,9 +3235,6 @@
       <c r="H25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I25" t="s">
-        <v>321</v>
-      </c>
       <c r="J25" s="2" t="s">
         <v>38</v>
       </c>
@@ -3540,9 +3321,6 @@
       <c r="H26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I26" t="s">
-        <v>322</v>
-      </c>
       <c r="J26" s="2" t="s">
         <v>38</v>
       </c>
@@ -3629,9 +3407,6 @@
       <c r="H27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I27" t="s">
-        <v>323</v>
-      </c>
       <c r="J27" s="2" t="s">
         <v>38</v>
       </c>
@@ -3718,9 +3493,6 @@
       <c r="H28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I28" t="s">
-        <v>324</v>
-      </c>
       <c r="J28" s="2" t="s">
         <v>38</v>
       </c>
@@ -3807,9 +3579,6 @@
       <c r="H29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I29" t="s">
-        <v>325</v>
-      </c>
       <c r="J29" s="2" t="s">
         <v>38</v>
       </c>
@@ -3896,9 +3665,6 @@
       <c r="H30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I30" t="s">
-        <v>326</v>
-      </c>
       <c r="J30" s="2" t="s">
         <v>38</v>
       </c>
@@ -3985,9 +3751,6 @@
       <c r="H31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I31" t="s">
-        <v>327</v>
-      </c>
       <c r="J31" s="2" t="s">
         <v>38</v>
       </c>
@@ -4074,9 +3837,6 @@
       <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I32" t="s">
-        <v>328</v>
-      </c>
       <c r="J32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4163,9 +3923,6 @@
       <c r="H33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I33" t="s">
-        <v>329</v>
-      </c>
       <c r="J33" s="2" t="s">
         <v>38</v>
       </c>
@@ -4252,9 +4009,6 @@
       <c r="H34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I34" t="s">
-        <v>330</v>
-      </c>
       <c r="J34" s="2" t="s">
         <v>38</v>
       </c>
@@ -4341,9 +4095,6 @@
       <c r="H35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I35" t="s">
-        <v>331</v>
-      </c>
       <c r="J35" s="2" t="s">
         <v>38</v>
       </c>
@@ -4430,9 +4181,6 @@
       <c r="H36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I36" t="s">
-        <v>332</v>
-      </c>
       <c r="J36" s="2" t="s">
         <v>38</v>
       </c>
@@ -4519,9 +4267,6 @@
       <c r="H37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I37" t="s">
-        <v>333</v>
-      </c>
       <c r="J37" s="2" t="s">
         <v>38</v>
       </c>
@@ -4608,9 +4353,6 @@
       <c r="H38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I38" t="s">
-        <v>334</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>38</v>
       </c>
@@ -4697,9 +4439,6 @@
       <c r="H39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I39" t="s">
-        <v>335</v>
-      </c>
       <c r="J39" s="2" t="s">
         <v>38</v>
       </c>
@@ -4786,9 +4525,6 @@
       <c r="H40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I40" t="s">
-        <v>336</v>
-      </c>
       <c r="J40" s="2" t="s">
         <v>38</v>
       </c>
@@ -4875,9 +4611,6 @@
       <c r="H41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I41" t="s">
-        <v>337</v>
-      </c>
       <c r="J41" s="2" t="s">
         <v>38</v>
       </c>
@@ -4964,9 +4697,6 @@
       <c r="H42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I42" t="s">
-        <v>338</v>
-      </c>
       <c r="J42" s="2" t="s">
         <v>38</v>
       </c>
@@ -5053,9 +4783,6 @@
       <c r="H43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I43" t="s">
-        <v>339</v>
-      </c>
       <c r="J43" s="2" t="s">
         <v>38</v>
       </c>
@@ -5142,9 +4869,6 @@
       <c r="H44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I44" t="s">
-        <v>340</v>
-      </c>
       <c r="J44" s="2" t="s">
         <v>38</v>
       </c>
@@ -5231,9 +4955,6 @@
       <c r="H45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I45" t="s">
-        <v>341</v>
-      </c>
       <c r="J45" s="2" t="s">
         <v>38</v>
       </c>
@@ -5320,9 +5041,6 @@
       <c r="H46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I46" t="s">
-        <v>342</v>
-      </c>
       <c r="J46" s="2" t="s">
         <v>38</v>
       </c>
@@ -5409,9 +5127,6 @@
       <c r="H47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I47" t="s">
-        <v>343</v>
-      </c>
       <c r="J47" s="2" t="s">
         <v>38</v>
       </c>
@@ -5498,9 +5213,6 @@
       <c r="H48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I48" t="s">
-        <v>344</v>
-      </c>
       <c r="J48" s="2" t="s">
         <v>38</v>
       </c>
@@ -5587,9 +5299,6 @@
       <c r="H49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I49" t="s">
-        <v>345</v>
-      </c>
       <c r="J49" s="2" t="s">
         <v>38</v>
       </c>
@@ -5675,9 +5384,6 @@
       </c>
       <c r="H50" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I50" t="s">
-        <v>346</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>38</v>
